--- a/Team-Data/2012-13/12-11-2012-13.xlsx
+++ b/Team-Data/2012-13/12-11-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>5</v>
@@ -780,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -792,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -956,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
@@ -1048,67 +1115,67 @@
         <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>80.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.439</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P4" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R4" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
         <v>21.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W4" t="n">
         <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1117,37 +1184,37 @@
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
@@ -1156,28 +1223,28 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU4" t="n">
         <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1308,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1341,13 +1408,13 @@
         <v>17</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>8</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1359,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>18</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,49 +1479,49 @@
         <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M6" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.332</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1463,16 +1530,16 @@
         <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1481,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
@@ -1493,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,19 +1569,19 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1523,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1576,97 +1643,97 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.227</v>
+        <v>0.19</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.413</v>
+        <v>0.412</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O7" t="n">
         <v>15.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.721</v>
+        <v>0.729</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
         <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V7" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1678,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM7" t="n">
         <v>7</v>
       </c>
-      <c r="AM7" t="n">
-        <v>4</v>
-      </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1693,19 +1760,19 @@
         <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR7" t="n">
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>26</v>
@@ -1720,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
         <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1860,13 +1927,13 @@
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1884,16 +1951,16 @@
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
@@ -1902,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.476</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J9" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.461</v>
@@ -1967,73 +2034,73 @@
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.328</v>
+        <v>0.327</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.676</v>
+        <v>0.68</v>
       </c>
       <c r="R9" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
         <v>22</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AB9" t="n">
         <v>100.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2063,19 +2130,19 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2087,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
@@ -2140,64 +2207,64 @@
         <v>35</v>
       </c>
       <c r="J10" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6.3</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB10" t="n">
         <v>94.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2218,55 +2285,55 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
         <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV10" t="n">
         <v>16</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2409,7 +2476,7 @@
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2424,22 +2491,22 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2633,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="BA12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-1</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>8</v>
@@ -2764,7 +2831,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2773,22 +2840,22 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2797,13 +2864,13 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2818,7 +2885,7 @@
         <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.714</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R14" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S14" t="n">
         <v>29.6</v>
       </c>
       <c r="T14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U14" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.9</v>
@@ -2910,25 +2977,25 @@
         <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>16</v>
@@ -2964,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>22</v>
@@ -2973,16 +3040,16 @@
         <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT14" t="n">
         <v>23</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.409</v>
+        <v>0.429</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J15" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.381</v>
+        <v>0.388</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="P15" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.675</v>
+        <v>0.678</v>
       </c>
       <c r="R15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>46.3</v>
+        <v>45.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="V15" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
         <v>24.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -3161,22 +3228,22 @@
         <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3313,13 +3380,13 @@
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
@@ -3328,22 +3395,22 @@
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
         <v>13</v>
@@ -3355,13 +3422,13 @@
         <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>20</v>
       </c>
       <c r="BA16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>4.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ17" t="n">
         <v>28</v>
@@ -3528,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -3701,7 +3768,7 @@
         <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT18" t="n">
         <v>16</v>
@@ -3710,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3880,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
@@ -3889,22 +3956,22 @@
         <v>3</v>
       </c>
       <c r="AU19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
         <v>20</v>
       </c>
-      <c r="AV19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>34.6</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.438</v>
+        <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="M20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.389</v>
+        <v>0.395</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA20" t="n">
         <v>19.6</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="R20" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19.7</v>
-      </c>
       <c r="AB20" t="n">
-        <v>91.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4035,64 +4102,64 @@
         <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
         <v>20</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>22</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
         <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="H21" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.409</v>
+        <v>0.405</v>
       </c>
       <c r="O21" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U21" t="n">
         <v>20</v>
@@ -4181,28 +4248,28 @@
         <v>10.9</v>
       </c>
       <c r="W21" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4214,16 +4281,16 @@
         <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4244,13 +4311,13 @@
         <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4262,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,10 +4475,10 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4432,13 +4499,13 @@
         <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
         <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4453,7 +4520,7 @@
         <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
@@ -4578,7 +4645,7 @@
         <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -4587,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4632,13 +4699,13 @@
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>-1.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="n">
         <v>8</v>
@@ -4784,7 +4851,7 @@
         <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ24" t="n">
         <v>21</v>
@@ -4796,19 +4863,19 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX24" t="n">
         <v>13</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -4936,7 +5003,7 @@
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>25</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>22</v>
@@ -4960,10 +5027,10 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,22 +5039,22 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5127,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5136,13 +5203,13 @@
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>16</v>
@@ -5157,10 +5224,10 @@
         <v>11</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5169,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5178,7 +5245,7 @@
         <v>9</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5321,7 +5388,7 @@
         <v>21</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>15</v>
@@ -5339,10 +5406,10 @@
         <v>18</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,13 +5427,13 @@
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA27" t="n">
         <v>28</v>
       </c>
       <c r="BB27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5533,10 +5600,10 @@
         <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
         <v>30</v>
@@ -5670,19 +5737,19 @@
         <v>29</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5694,16 +5761,16 @@
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5858,16 +5925,16 @@
         <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
         <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
         <v>8</v>
@@ -5876,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
@@ -5885,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
@@ -5894,10 +5961,10 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW30" t="n">
         <v>11</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
@@ -5944,103 +6011,103 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.167</v>
+        <v>0.118</v>
       </c>
       <c r="H31" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I31" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="J31" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.407</v>
+        <v>0.412</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M31" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="R31" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U31" t="n">
         <v>20.8</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="R31" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="S31" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="U31" t="n">
-        <v>20.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.6</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6055,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6064,40 +6131,40 @@
         <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT31" t="n">
         <v>14</v>
       </c>
-      <c r="AT31" t="n">
-        <v>12</v>
-      </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>21</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-11-2012-13</t>
+          <t>2012-12-11</t>
         </is>
       </c>
     </row>
